--- a/2016년 수강료 4월/마술 수강료.xlsx
+++ b/2016년 수강료 4월/마술 수강료.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18315" windowHeight="11655"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고   건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김민성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +189,10 @@
   </si>
   <si>
     <t>*자유수강자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +597,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F37"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -627,12 +627,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F2" s="11">
         <v>22060</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="11">
         <v>22060</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11">
         <v>22060</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="11">
         <v>22060</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -728,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="11">
         <v>22060</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="11">
         <v>22060</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="11">
         <v>22060</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="11">
         <v>22060</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -812,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="11">
         <v>22060</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -833,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="11">
         <v>22060</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="11">
         <v>22060</v>
@@ -863,30 +863,30 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11">
+        <v>22060</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="8">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="11">
-        <v>22060</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -904,12 +904,12 @@
         <v>22060</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -921,7 +921,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="11">
         <v>22060</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
@@ -942,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="11">
         <v>22060</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="11">
         <v>22060</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="4">
         <v>2</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4">
         <v>2</v>
@@ -1026,7 +1026,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="11">
         <v>22060</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="11">
         <v>22060</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="5">
         <v>3</v>
@@ -1089,7 +1089,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="11">
         <v>22060</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
@@ -1109,18 +1109,18 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="11">
         <v>22060</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5">
         <v>3</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -1153,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="11">
         <v>22060</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4">
         <v>3</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4">
         <v>4</v>
@@ -1216,7 +1216,7 @@
         <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="11">
         <v>22060</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4">
         <v>5</v>
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="11">
         <v>22060</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4">
         <v>5</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4">
         <v>5</v>
@@ -1279,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="11">
         <v>22060</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="4">
         <v>5</v>
@@ -1300,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="11">
         <v>22060</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="5">
         <v>6</v>
@@ -1342,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" s="11">
         <v>22060</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="36" spans="1:7" ht="20.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4">
         <v>6</v>
@@ -1369,12 +1369,12 @@
         <v>22060</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="5">
         <v>6</v>
@@ -1386,7 +1386,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" s="11">
         <v>22060</v>
